--- a/src/demo/zxxt_demo_030_b-xlsx.w3mi.data.xlsx
+++ b/src/demo/zxxt_demo_030_b-xlsx.w3mi.data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\modekz\AppData\Local\SAP\SAP GUI\tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moldab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC68AA1B-6FEC-43F2-A55B-C2BDFA31E32F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7623399-DC3D-4432-9D41-EF1A50609873}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <r>
       <t xml:space="preserve">Title: </t>
@@ -146,12 +146,27 @@
   <si>
     <t>{R-T-SUM2;func=AVG}</t>
   </si>
+  <si>
+    <t>Multi sheet issues with print preview</t>
+  </si>
+  <si>
+    <t>If you have problems with printing the document:</t>
+  </si>
+  <si>
+    <t>1)Create 1st sheet like this</t>
+  </si>
+  <si>
+    <t>2)or call macro like in example 070 to save file with a new name (so the entire file would be recreated)</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/office/vba/api/excel.workbook.saveas</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -324,6 +339,21 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="37">
@@ -690,7 +720,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -734,8 +764,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="42" applyBorder="1" applyAlignment="1">
@@ -798,51 +829,54 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="43"/>
   </cellXfs>
-  <cellStyles count="43">
-    <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
+  <cellStyles count="44">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Normal 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Акцент4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Акцент5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Акцент6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ввод " xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Вывод" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Вычисление" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Заголовок 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Заголовок 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Заголовок 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Заголовок 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Итог" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Контрольная ячейка" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Название" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Нейтральный" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Плохой" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Примечание" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Связанная ячейка" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1120,10 +1154,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1136,7 +1170,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A11" r:id="rId1" xr:uid="{C7CD4EE4-3A82-4056-8B7E-D36C30704CE7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
